--- a/docs/Decodifiche/3_dec_use_case.xlsx
+++ b/docs/Decodifiche/3_dec_use_case.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2160" uniqueCount="720">
   <si>
     <t>ID</t>
   </si>
@@ -1016,6 +1016,15 @@
     <t>Trascrizione atto nascita su richiesta dell'interessato per art. 19</t>
   </si>
   <si>
+    <t>1317</t>
+  </si>
+  <si>
+    <t>Trascrizione di nascita a seguito di acquisto cittadinanza per beneficio di legge (articolo 4 comma 1-bis)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1318</t>
   </si>
   <si>
@@ -1232,9 +1241,6 @@
     <t>Caso d'uso di servizio annotazione comunicazione da altri comuni</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>14500000</t>
   </si>
   <si>
@@ -1805,6 +1811,15 @@
     <t>Accordo di modifica delle condizioni di scioglimento dell'unione civile</t>
   </si>
   <si>
+    <t>448000</t>
+  </si>
+  <si>
+    <t>Trascrizioni di sentenza straniera di scioglimento unione civile</t>
+  </si>
+  <si>
+    <t>2025-01-01 00:00:00.0</t>
+  </si>
+  <si>
     <t>449999</t>
   </si>
   <si>
@@ -1889,6 +1904,18 @@
     <t>Dichiarazione: Straniero o dell'apolide, del quale il padre o la madre o uno degli ascendenti in linea retta di secondo grado sono stati cittadini per nascita: acquisto assunzione di pubblico impiego alle dipendenze dello Stato</t>
   </si>
   <si>
+    <t>51111</t>
+  </si>
+  <si>
+    <t>Dichiarazione di volonta' d'acquisto della cittadinanza italiana di minore legge n. art. 4 legge 91/1992 (ordinaria)</t>
+  </si>
+  <si>
+    <t>51112</t>
+  </si>
+  <si>
+    <t>Dichiarazione di volonta' d'acquisto della cittadinanza italiana di minore art.1-ter legge n.74/2025 (transitoria valida solo fino al 31 maggio 2026)</t>
+  </si>
+  <si>
     <t>51201</t>
   </si>
   <si>
@@ -2007,6 +2034,18 @@
   </si>
   <si>
     <t>Trascrizione: Trascrizione del decreto per matrimonio-unione civile-naturalizzazione-da consolato</t>
+  </si>
+  <si>
+    <t>52155</t>
+  </si>
+  <si>
+    <t>Trascrizione acquisto cittadinanza a seguito di decreto o sentenza di autorita' giudiziaria o amministrativa su richiesta del consolato</t>
+  </si>
+  <si>
+    <t>52156</t>
+  </si>
+  <si>
+    <t>Esito di accertamento per articolo 4 comma 1-bis</t>
   </si>
   <si>
     <t>52211</t>
@@ -2191,7 +2230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G354"/>
+  <dimension ref="A1:G360"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -5413,16 +5452,16 @@
         <v>335</v>
       </c>
       <c r="C161" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="162">
@@ -5433,7 +5472,7 @@
         <v>338</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>8</v>
+        <v>339</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>9</v>
@@ -5447,10 +5486,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
@@ -5467,10 +5506,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
@@ -5487,10 +5526,10 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
@@ -5507,10 +5546,10 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
@@ -5527,10 +5566,10 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
@@ -5547,13 +5586,13 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>351</v>
+        <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>9</v>
@@ -5593,7 +5632,7 @@
         <v>356</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>9</v>
@@ -5607,10 +5646,10 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>320</v>
@@ -5627,13 +5666,13 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>9</v>
@@ -5647,10 +5686,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
@@ -5667,10 +5706,10 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
@@ -5687,10 +5726,10 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
@@ -5707,10 +5746,10 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>8</v>
@@ -5727,10 +5766,10 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
@@ -5747,10 +5786,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
@@ -5767,10 +5806,10 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
@@ -5787,10 +5826,10 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
@@ -5807,13 +5846,13 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>379</v>
+        <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>9</v>
@@ -5853,7 +5892,7 @@
         <v>384</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>8</v>
+        <v>385</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>9</v>
@@ -5867,10 +5906,10 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
@@ -5882,15 +5921,15 @@
         <v>10</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
@@ -5902,15 +5941,15 @@
         <v>10</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>8</v>
@@ -5922,15 +5961,15 @@
         <v>10</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
@@ -5942,15 +5981,15 @@
         <v>10</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
@@ -5962,15 +6001,15 @@
         <v>10</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
@@ -5982,18 +6021,18 @@
         <v>10</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>399</v>
+        <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>9</v>
@@ -6013,7 +6052,7 @@
         <v>401</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>9</v>
@@ -6027,13 +6066,13 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>9</v>
@@ -6047,10 +6086,10 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>8</v>
@@ -6062,7 +6101,7 @@
         <v>10</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
     </row>
     <row r="194">
@@ -6082,7 +6121,7 @@
         <v>10</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="195">
@@ -6102,7 +6141,7 @@
         <v>10</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="196">
@@ -6122,7 +6161,7 @@
         <v>10</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="197">
@@ -6133,7 +6172,7 @@
         <v>414</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>415</v>
+        <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>9</v>
@@ -6142,19 +6181,19 @@
         <v>10</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="C198" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="D198" s="2" t="s">
         <v>9</v>
       </c>
@@ -6162,19 +6201,19 @@
         <v>10</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="C199" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C199" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="D199" s="2" t="s">
         <v>9</v>
       </c>
@@ -6182,7 +6221,7 @@
         <v>10</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="200">
@@ -6202,7 +6241,7 @@
         <v>10</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="201">
@@ -6222,7 +6261,7 @@
         <v>10</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="202">
@@ -6242,7 +6281,7 @@
         <v>10</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="203">
@@ -6262,7 +6301,7 @@
         <v>10</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="204">
@@ -6270,10 +6309,10 @@
         <v>429</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>7</v>
+        <v>430</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>9</v>
@@ -6282,15 +6321,15 @@
         <v>10</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>11</v>
+        <v>336</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>431</v>
+        <v>7</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
@@ -6302,7 +6341,7 @@
         <v>10</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206">
@@ -6373,7 +6412,7 @@
         <v>439</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>336</v>
+        <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>9</v>
@@ -6393,7 +6432,7 @@
         <v>441</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>9</v>
@@ -6413,7 +6452,7 @@
         <v>443</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>8</v>
+        <v>339</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>9</v>
@@ -6442,7 +6481,7 @@
         <v>10</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213">
@@ -6493,10 +6532,10 @@
         <v>451</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>452</v>
+        <v>9</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>10</v>
@@ -6507,16 +6546,16 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="C216" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>10</v>
@@ -6533,7 +6572,7 @@
         <v>456</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>8</v>
+        <v>339</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>9</v>
@@ -6613,7 +6652,7 @@
         <v>464</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>9</v>
@@ -6633,7 +6672,7 @@
         <v>466</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>9</v>
@@ -6650,7 +6689,7 @@
         <v>467</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>8</v>
@@ -6662,15 +6701,15 @@
         <v>10</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>469</v>
+        <v>408</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
@@ -6682,7 +6721,7 @@
         <v>10</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="225">
@@ -6690,7 +6729,7 @@
         <v>470</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>410</v>
+        <v>471</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>8</v>
@@ -6702,12 +6741,12 @@
         <v>10</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>412</v>
@@ -6722,18 +6761,18 @@
         <v>10</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>418</v>
+        <v>8</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>9</v>
@@ -6742,19 +6781,19 @@
         <v>10</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="D228" s="2" t="s">
         <v>9</v>
       </c>
@@ -6762,18 +6801,18 @@
         <v>10</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>7</v>
+        <v>422</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>9</v>
@@ -6782,15 +6821,15 @@
         <v>10</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>11</v>
+        <v>336</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>476</v>
+        <v>7</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>8</v>
@@ -6802,7 +6841,7 @@
         <v>10</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231">
@@ -6813,10 +6852,10 @@
         <v>478</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>479</v>
+        <v>9</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>10</v>
@@ -6827,16 +6866,16 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="C232" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>10</v>
@@ -6853,10 +6892,10 @@
         <v>483</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>479</v>
+        <v>9</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>10</v>
@@ -6873,10 +6912,10 @@
         <v>485</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>9</v>
+        <v>481</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>10</v>
@@ -7033,7 +7072,7 @@
         <v>501</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>9</v>
@@ -7053,7 +7092,7 @@
         <v>503</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>9</v>
@@ -7113,7 +7152,7 @@
         <v>509</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>9</v>
@@ -7127,10 +7166,10 @@
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>320</v>
@@ -7153,7 +7192,7 @@
         <v>511</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>9</v>
@@ -7182,7 +7221,7 @@
         <v>10</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="250">
@@ -7273,7 +7312,7 @@
         <v>523</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>524</v>
+        <v>8</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>9</v>
@@ -7287,13 +7326,13 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="C255" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>9</v>
@@ -7322,7 +7361,7 @@
         <v>10</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="257">
@@ -7453,10 +7492,10 @@
         <v>542</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>543</v>
+        <v>9</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>10</v>
@@ -7467,16 +7506,16 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="C264" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D264" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E264" s="2" t="s">
         <v>10</v>
@@ -7533,7 +7572,7 @@
         <v>551</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>9</v>
@@ -7542,7 +7581,7 @@
         <v>10</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>406</v>
+        <v>14</v>
       </c>
     </row>
     <row r="268">
@@ -7550,10 +7589,10 @@
         <v>552</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>405</v>
+        <v>553</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>9</v>
@@ -7562,15 +7601,15 @@
         <v>10</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>469</v>
+        <v>408</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>8</v>
@@ -7582,15 +7621,15 @@
         <v>10</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>410</v>
+        <v>471</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>8</v>
@@ -7602,12 +7641,12 @@
         <v>10</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>412</v>
@@ -7622,18 +7661,18 @@
         <v>10</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>418</v>
+        <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>9</v>
@@ -7642,19 +7681,19 @@
         <v>10</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B273" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C273" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C273" s="2" t="s">
-        <v>320</v>
-      </c>
       <c r="D273" s="2" t="s">
         <v>9</v>
       </c>
@@ -7662,18 +7701,18 @@
         <v>10</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>7</v>
+        <v>422</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>9</v>
@@ -7682,15 +7721,15 @@
         <v>10</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>11</v>
+        <v>336</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>560</v>
+        <v>7</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>8</v>
@@ -7702,7 +7741,7 @@
         <v>10</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276">
@@ -7822,7 +7861,7 @@
         <v>10</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="282">
@@ -7893,7 +7932,7 @@
         <v>580</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>9</v>
@@ -7913,7 +7952,7 @@
         <v>582</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>9</v>
@@ -7942,7 +7981,7 @@
         <v>10</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="288">
@@ -8033,7 +8072,7 @@
         <v>594</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>9</v>
@@ -8053,7 +8092,7 @@
         <v>596</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>9</v>
@@ -8062,7 +8101,7 @@
         <v>10</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="294">
@@ -8073,7 +8112,7 @@
         <v>598</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>8</v>
+        <v>339</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>9</v>
@@ -8082,7 +8121,7 @@
         <v>10</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>14</v>
+        <v>325</v>
       </c>
     </row>
     <row r="295">
@@ -8090,10 +8129,10 @@
         <v>599</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>405</v>
+        <v>600</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>8</v>
+        <v>601</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>9</v>
@@ -8102,15 +8141,15 @@
         <v>10</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>469</v>
+        <v>603</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>8</v>
@@ -8122,15 +8161,15 @@
         <v>10</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>406</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>8</v>
@@ -8142,15 +8181,15 @@
         <v>10</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>8</v>
@@ -8162,18 +8201,18 @@
         <v>10</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>418</v>
+        <v>8</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>9</v>
@@ -8182,18 +8221,18 @@
         <v>10</v>
       </c>
       <c r="F299" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>320</v>
+        <v>8</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>9</v>
@@ -8202,18 +8241,18 @@
         <v>10</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>606</v>
+        <v>419</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>607</v>
+        <v>420</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>9</v>
@@ -8222,18 +8261,18 @@
         <v>10</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>7</v>
+        <v>422</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>9</v>
@@ -8242,18 +8281,18 @@
         <v>10</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>11</v>
+        <v>336</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>8</v>
+        <v>612</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>9</v>
@@ -8262,15 +8301,15 @@
         <v>10</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>14</v>
+        <v>336</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>612</v>
+        <v>7</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>8</v>
@@ -8282,15 +8321,15 @@
         <v>10</v>
       </c>
       <c r="F304" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
@@ -8307,10 +8346,10 @@
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
@@ -8327,10 +8366,10 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
@@ -8347,10 +8386,10 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
@@ -8367,10 +8406,10 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
@@ -8387,10 +8426,10 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>8</v>
@@ -8407,10 +8446,10 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
@@ -8427,10 +8466,10 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
@@ -8447,13 +8486,13 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>9</v>
@@ -8467,13 +8506,13 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>9</v>
@@ -8487,10 +8526,10 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>8</v>
@@ -8507,10 +8546,10 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>8</v>
@@ -8527,10 +8566,10 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>8</v>
@@ -8547,10 +8586,10 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>8</v>
@@ -8567,10 +8606,10 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>8</v>
@@ -8587,10 +8626,10 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>8</v>
@@ -8602,15 +8641,15 @@
         <v>10</v>
       </c>
       <c r="F320" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>8</v>
@@ -8622,15 +8661,15 @@
         <v>10</v>
       </c>
       <c r="F321" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>8</v>
@@ -8642,15 +8681,15 @@
         <v>10</v>
       </c>
       <c r="F322" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>8</v>
@@ -8662,15 +8701,15 @@
         <v>10</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>8</v>
@@ -8687,10 +8726,10 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>8</v>
@@ -8707,10 +8746,10 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>8</v>
@@ -8727,10 +8766,10 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>8</v>
@@ -8747,10 +8786,10 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>8</v>
@@ -8767,10 +8806,10 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>8</v>
@@ -8787,10 +8826,10 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>8</v>
@@ -8807,10 +8846,10 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>8</v>
@@ -8827,10 +8866,10 @@
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>8</v>
@@ -8847,10 +8886,10 @@
     </row>
     <row r="333">
       <c r="A333" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>8</v>
@@ -8867,10 +8906,10 @@
     </row>
     <row r="334">
       <c r="A334" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>8</v>
@@ -8887,13 +8926,13 @@
     </row>
     <row r="335">
       <c r="A335" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>8</v>
+        <v>339</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>9</v>
@@ -8907,13 +8946,13 @@
     </row>
     <row r="336">
       <c r="A336" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>9</v>
@@ -8922,15 +8961,15 @@
         <v>10</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>325</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>8</v>
@@ -8947,10 +8986,10 @@
     </row>
     <row r="338">
       <c r="A338" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>8</v>
@@ -8967,10 +9006,10 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>8</v>
@@ -8987,10 +9026,10 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>8</v>
@@ -9007,10 +9046,10 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>8</v>
@@ -9027,10 +9066,10 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>8</v>
@@ -9047,10 +9086,10 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>8</v>
@@ -9067,10 +9106,10 @@
     </row>
     <row r="344">
       <c r="A344" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>8</v>
@@ -9087,10 +9126,10 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>8</v>
@@ -9107,10 +9146,10 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>8</v>
@@ -9127,13 +9166,13 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>399</v>
+        <v>8</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>9</v>
@@ -9147,10 +9186,10 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>8</v>
@@ -9167,10 +9206,10 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>405</v>
+        <v>703</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>8</v>
@@ -9182,15 +9221,15 @@
         <v>10</v>
       </c>
       <c r="F349" s="2" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>469</v>
+        <v>705</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>8</v>
@@ -9202,15 +9241,15 @@
         <v>10</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>410</v>
+        <v>707</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>8</v>
@@ -9222,15 +9261,15 @@
         <v>10</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>412</v>
+        <v>709</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>8</v>
@@ -9242,18 +9281,18 @@
         <v>10</v>
       </c>
       <c r="F352" s="2" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>417</v>
+        <v>711</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>9</v>
@@ -9262,27 +9301,147 @@
         <v>10</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="B354" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C359" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C354" s="2" t="s">
+      <c r="D359" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C360" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D354" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E354" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F354" s="2" t="s">
-        <v>406</v>
+      <c r="D360" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
